--- a/datos_migracion/c2022_tp_migraciones_c15.xlsx
+++ b/datos_migracion/c2022_tp_migraciones_c15.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\Documents\visualizacion-de-datos\datos_migracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcasiraghi\Documents\visualizacion-de-datos\datos_migracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FCD3A-03AF-4642-B7D5-ECB24057530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="3680" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="19200" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro 15" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -259,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###,###,###,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
@@ -505,6 +504,9 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -537,9 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,68 +672,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="T5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="10"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" customWidth="1"/>
-    <col min="15" max="16" width="11.88671875" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="18" max="19" width="11.88671875" customWidth="1"/>
-    <col min="20" max="21" width="10.88671875" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="13.88671875" customWidth="1"/>
-    <col min="25" max="25" width="14.44140625" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" customWidth="1"/>
-    <col min="27" max="27" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="16" width="11.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="18" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="13.83203125" customWidth="1"/>
+    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" customWidth="1"/>
+    <col min="27" max="27" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="14" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:50" ht="14.1" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
@@ -760,35 +759,35 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
     </row>
-    <row r="2" spans="1:50" ht="14" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:50" ht="14.1" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11" t="s">
@@ -906,48 +905,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="23" customHeight="1">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:50" ht="23.1" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
       <c r="AC4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="65" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:50" ht="65.099999999999994" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1269,10 +1268,10 @@
       <c r="Z8" s="10">
         <v>949</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="18">
         <v>0</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3508,35 +3507,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="24.65" customHeight="1">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:50" ht="24.6" customHeight="1">
+      <c r="A35" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="22"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11" t="s">
@@ -3565,34 +3564,34 @@
       <c r="AX35" s="11"/>
     </row>
     <row r="36" spans="1:50" ht="12" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="22"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11" t="s">
@@ -3620,7 +3619,7 @@
       <c r="AW36" s="11"/>
       <c r="AX36" s="11"/>
     </row>
-    <row r="37" spans="1:50" ht="11.5">
+    <row r="37" spans="1:50" ht="12">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -3731,30 +3730,30 @@
       </c>
     </row>
     <row r="43" spans="1:50">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:50">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3768,6 +3767,6 @@
     <mergeCell ref="C4:Z4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>